--- a/docs/content/MultipleRegions.xlsx
+++ b/docs/content/MultipleRegions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johna\Documents\GitHub\fsharpx\tests\FSharpx.TypeProviders.Excel.Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\ExcelProvider4\docs\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,9 +101,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,19 +425,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -453,13 +462,13 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -505,5 +514,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>